--- a/Analysis/Intermediate results/TableResultsForPaper.xlsx
+++ b/Analysis/Intermediate results/TableResultsForPaper.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +19,262 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Simuliidae</t>
+  </si>
+  <si>
+    <t>Limoniidae</t>
+  </si>
+  <si>
+    <t>Limnephilidae</t>
+  </si>
+  <si>
+    <t>Rhyacophilidae</t>
+  </si>
+  <si>
+    <t>Elmidae</t>
+  </si>
+  <si>
+    <t>Gammaridae</t>
+  </si>
+  <si>
+    <t>Heptageniidae</t>
+  </si>
+  <si>
+    <t>Nemouridae</t>
+  </si>
+  <si>
+    <t>Empididae</t>
+  </si>
+  <si>
+    <t>Hydropsychidae</t>
+  </si>
+  <si>
+    <t>Leuctridae</t>
+  </si>
+  <si>
+    <t>Ceratopogonidae</t>
+  </si>
+  <si>
+    <t>Psychodidae</t>
+  </si>
+  <si>
+    <t>Leptophlebiidae</t>
+  </si>
+  <si>
+    <t>Sphaeriidae</t>
+  </si>
+  <si>
+    <t>Taeniopterygidae</t>
+  </si>
+  <si>
+    <t>Perlodidae</t>
+  </si>
+  <si>
+    <t>Athericidae</t>
+  </si>
+  <si>
+    <t>Psychomyiidae</t>
+  </si>
+  <si>
+    <t>Nematoda</t>
+  </si>
+  <si>
+    <t>Hydraenidae</t>
+  </si>
+  <si>
+    <t>Planariidae</t>
+  </si>
+  <si>
+    <t>Sericostomatidae</t>
+  </si>
+  <si>
+    <t>Tipulidae</t>
+  </si>
+  <si>
+    <t>Polycentropodidae</t>
+  </si>
+  <si>
+    <t>Odontoceridae</t>
+  </si>
+  <si>
+    <t>Dugesiidae</t>
+  </si>
+  <si>
+    <t>Lymnaeidae</t>
+  </si>
+  <si>
+    <t>Erpobdellidae</t>
+  </si>
+  <si>
+    <t>Scirtidae</t>
+  </si>
+  <si>
+    <t>Ephemerellidae</t>
+  </si>
+  <si>
+    <t>Asellidae</t>
+  </si>
+  <si>
+    <t>Ephemeridae</t>
+  </si>
+  <si>
+    <t>Chloroperlidae</t>
+  </si>
+  <si>
+    <t>Stratiomyidae</t>
+  </si>
+  <si>
+    <t>Dytiscidae</t>
+  </si>
+  <si>
+    <t>Hydroptilidae</t>
+  </si>
+  <si>
+    <t>Hydrobiidae</t>
+  </si>
+  <si>
+    <t>Perlidae</t>
+  </si>
+  <si>
+    <t>Planorbidae</t>
+  </si>
+  <si>
+    <t>Glossosomatidae</t>
+  </si>
+  <si>
+    <t>Blephariceridae</t>
+  </si>
+  <si>
+    <t>Glossiphoniidae</t>
+  </si>
+  <si>
+    <t>Capniidae</t>
+  </si>
+  <si>
+    <t>Goeridae</t>
+  </si>
+  <si>
+    <t>Philopotamidae</t>
+  </si>
+  <si>
+    <t>Dixidae</t>
+  </si>
+  <si>
+    <t>Gyrinidae</t>
+  </si>
+  <si>
+    <t>Leptoceridae</t>
+  </si>
+  <si>
+    <t>Caenidae</t>
+  </si>
+  <si>
+    <t>Calopterygidae</t>
+  </si>
+  <si>
+    <t>Tabanidae</t>
+  </si>
+  <si>
+    <t>Pediciidae</t>
+  </si>
+  <si>
+    <t>Cordulegastridae</t>
+  </si>
+  <si>
+    <t>Anthomyiidae</t>
+  </si>
+  <si>
+    <t>group.Hemiptera</t>
+  </si>
+  <si>
+    <t>Lepidostomatidae</t>
+  </si>
+  <si>
+    <t>Physidae</t>
+  </si>
+  <si>
+    <t>Sialidae</t>
+  </si>
+  <si>
+    <t>Prevalence</t>
+  </si>
+  <si>
+    <t>Cross-validation</t>
+  </si>
+  <si>
+    <t>Generalization</t>
+  </si>
+  <si>
+    <t>iGLM</t>
+  </si>
+  <si>
+    <t>chGLM</t>
+  </si>
+  <si>
+    <t>hGLM</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>iGLM2</t>
+  </si>
+  <si>
+    <t>chGLM3</t>
+  </si>
+  <si>
+    <t>hGLM4</t>
+  </si>
+  <si>
+    <t>GAM5</t>
+  </si>
+  <si>
+    <t>SVM6</t>
+  </si>
+  <si>
+    <t>BCT7</t>
+  </si>
+  <si>
+    <t>RF8</t>
+  </si>
+  <si>
+    <t>ANN9</t>
+  </si>
+  <si>
+    <t>[min,max,mean]</t>
+  </si>
+  <si>
+    <t>Likelihood ratio during cross-validation</t>
+  </si>
+  <si>
+    <t>Likelihood ratio during generalization</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +284,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,13 +316,247 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +567,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:R61" totalsRowShown="0">
+  <autoFilter ref="A2:R61"/>
+  <sortState ref="A3:R61">
+    <sortCondition descending="1" ref="H2:H61"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Taxa"/>
+    <tableColumn id="2" name="Prevalence" dataDxfId="35"/>
+    <tableColumn id="3" name="iGLM" dataDxfId="34"/>
+    <tableColumn id="4" name="chGLM" dataDxfId="33"/>
+    <tableColumn id="5" name="hGLM" dataDxfId="32"/>
+    <tableColumn id="6" name="GAM" dataDxfId="31"/>
+    <tableColumn id="7" name="SVM" dataDxfId="30"/>
+    <tableColumn id="8" name="RF" dataDxfId="29"/>
+    <tableColumn id="9" name="BCT" dataDxfId="28"/>
+    <tableColumn id="10" name="ANN" dataDxfId="27"/>
+    <tableColumn id="11" name="iGLM2" dataDxfId="26"/>
+    <tableColumn id="12" name="chGLM3" dataDxfId="25"/>
+    <tableColumn id="13" name="hGLM4" dataDxfId="24"/>
+    <tableColumn id="14" name="GAM5" dataDxfId="23"/>
+    <tableColumn id="15" name="SVM6" dataDxfId="22"/>
+    <tableColumn id="16" name="BCT7" dataDxfId="21"/>
+    <tableColumn id="17" name="RF8" dataDxfId="20"/>
+    <tableColumn id="18" name="ANN9" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A2:R23" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A2:R23"/>
+  <sortState ref="A3:R22">
+    <sortCondition descending="1" ref="H2:H22"/>
+  </sortState>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Taxa" dataDxfId="18"/>
+    <tableColumn id="2" name="Prevalence" dataDxfId="17"/>
+    <tableColumn id="3" name="iGLM" dataDxfId="16"/>
+    <tableColumn id="4" name="chGLM" dataDxfId="15"/>
+    <tableColumn id="5" name="hGLM" dataDxfId="14"/>
+    <tableColumn id="6" name="GAM" dataDxfId="13"/>
+    <tableColumn id="7" name="SVM" dataDxfId="12"/>
+    <tableColumn id="8" name="RF" dataDxfId="11"/>
+    <tableColumn id="9" name="BCT" dataDxfId="10"/>
+    <tableColumn id="10" name="ANN" dataDxfId="9"/>
+    <tableColumn id="11" name="iGLM2" dataDxfId="8"/>
+    <tableColumn id="12" name="chGLM3" dataDxfId="7"/>
+    <tableColumn id="13" name="hGLM4" dataDxfId="6"/>
+    <tableColumn id="14" name="GAM5" dataDxfId="5"/>
+    <tableColumn id="15" name="SVM6" dataDxfId="4"/>
+    <tableColumn id="16" name="BCT7" dataDxfId="3"/>
+    <tableColumn id="17" name="RF8" dataDxfId="2"/>
+    <tableColumn id="18" name="ANN9" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -114,7 +675,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +710,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +892,4666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="18" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.02454444031238E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.99003620843060103</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99168152741947002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.99420846006447305</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.97506562462600399</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.96197145170506204</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.87614208911131297</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.95573844230803795</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.95830344544430202</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.65604565934849202</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.64306789415730903</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.59545297810750197</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.68423140802267701</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.611376296415586</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.64111490233162904</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.62846211341231994</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.65932441249095597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.6526589810338403E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.99129710914302405</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.99104450954483403</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.99300428261476403</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.97495112644899296</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.96954245898955305</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.86187008091412198</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.97124747909020703</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.95574060075204403</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.90388674225037502</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.89652635819465998</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.88966567183961898</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.50768747128970804</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.90807913489995495</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.909699024600649</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.79063267460014297</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.90378973234910098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.5864633692822606E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.99176243137385001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.99488030293821095</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.99799775771145405</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.96932493865587099</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.94640062226898802</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.85706547895627705</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.95750923893988904</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.94282132161142695</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.71280886848561997</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.67225229264298003</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.695081332594778</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.46476101685193599</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.62036596321962101</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.70156409848233003</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.64573831888661604</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.68440320466446203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.5079955373744905E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.99350822905203495</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.996729580193776</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.99499268856520195</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.98007840342534203</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.958045901047758</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.85595604674160397</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.94567139380450804</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.94934021623736697</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.1095251123701799</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.11558589665179</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.0986571531720799</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.02870812888267</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.0235604949825801</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.04370706397906</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.90914327038076503</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.04587040731753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.2930457419114895E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.99252581568702303</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99423827143756505</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.99605909439534701</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.97764092569790295</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.94967211129860596</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.85503535905265904</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.95483302029574701</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.95457531600193002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.70300417258355397</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.72710486434735799</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.71801117931153402</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.35334602842408702</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.62380112745240301</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.717297494478356</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.67114672005087805</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.74249508011643095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.9583488285608003E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.989153361071618</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.993526742303805</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.99414092047770597</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97250427575364995</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.94436090388021598</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85405157644850804</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.94210770289858603</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.94400406482156896</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.59679570397081605</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.58717135578842605</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.60357121926194102</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.61294892250090005</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.49426681862715299</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.56610561813305904</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.60889967078638896</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.60522293428401996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.6195611751580494E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.99226761865844904</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.99647010935659197</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.99356712736896202</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.98106384972680905</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.980051246527057</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.850608343023459</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.97654761492891995</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.97453057057266501</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.0689577000152</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.0536754216476001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1.06668704416871</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.71371437836290597</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1.06595352805122</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.04599256915393</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.87588735773290705</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1.05760010584214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.2435849758274401E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.985608243022007</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99319400074987996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.99323887945863398</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97085486477759497</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.98002926491363296</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.848639127600893</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.97089474714355195</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.97258262218191005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.1081818033839099</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.09859775782765</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1.11505592129691</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.09158954404453</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.08880492524068</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.0679735598007101</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.92383088438261696</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1.0831200917488699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.12235031610263999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.98808457679496997</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98986364628346402</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.99298403111379896</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.97400718795316799</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.97620359657403999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.84555218654350095</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.972239521825912</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.963325245806953</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.2800368791590799</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.28645420859013</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.2848460641799</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.47454474453142698</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.2440146743641101</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.2222191296291101</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.05664206712366</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1.2536646822355999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.6980290070658194E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.99433145200845496</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.99860876294242196</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.99484930628186097</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97870049169916196</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.95349048304101103</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.84273020495428497</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.96971762849832999</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.97111622136053499</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.74027202308512197</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.74806791021682095</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.74765676906490997</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.49733315299240499</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.662620227185446</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.73943987469461003</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.65964700790657504</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.68629335938104896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.2599479360357007E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.994264731338935</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.99692735660479304</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.99557826760722401</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.98017227782520699</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.97805840120555498</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.84220430822669401</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.97952194430237105</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.97721497134966395</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.2982886905714399</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.29756368573845</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.3036723445148899</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9.8414774870673002E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.23193326049664</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.2398800613929899</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.06156495000738</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1.28221190638108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.4830792116028295E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.99126290298175801</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.99560591545158394</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.99467306014346002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.96991250414837604</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.97933052180912405</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.84187365431914096</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.97006702058351202</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.97475608499907895</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.2881864607521401</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1.2920761401341201</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.2883515938782399</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.103591162028284</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1.2292128362379799</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.2605696530025401</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.0590854019360401</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1.2780667428058401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.105987355894385</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.98112982776153601</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.99178461838773802</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.98755217703704801</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.9690216647048</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.93498626316259603</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.84039665034857602</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.92758884928940699</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.96150214630403796</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.04818688384713</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.05637878688621</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.0733606546774099</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.0490178673801001</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.07340987844517</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.03309623566383</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.88490111863415799</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.04692009877032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.6195611751580494E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.99794888103603896</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.99868976666588805</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.99898012632448296</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97870215473717603</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.97387426792510301</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.83942402477546496</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.96970928830136205</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.959492464630747</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.80021518100729405</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.80102164613492199</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.79266735993318005</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.78804433796032602</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.785842279173947</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.79737171004602303</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.70352300748917995</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.80317591481905504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.5823726292302001E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.990853224525857</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.99557542924169395</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.99333462920187798</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.97757410540017198</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.98366318459334101</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.83176944957890797</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.97824838776517498</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.95868233797124203</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.88635438033252101</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.88223376429775102</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.86981065636808197</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.39910151622735301</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.87282417946115098</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.88399958881310803</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.67949098448191603</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.84752219081938696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.92301970992934201</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.99257794390568599</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.99360552219888798</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.99155644268204102</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.97487700812841005</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.97222683954857003</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.82864907660581999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.97827662745324095</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.96495266383503697</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.0031506740984799</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.0037539870847301</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.99166882245284804</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.91657471217401298</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.97414831761514997</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.98331538553132103</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.80545238592249502</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.97937179898940496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7.4748977314987003E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.99355497197398002</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.99673464036412196</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.99461570877053296</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.98020426203598898</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.97182203021096103</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.82148251967841701</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.973911561913959</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.97135447542212305</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.85801758419042595</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.87693580646581704</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.86065764329735694</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.76274650372105801</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.88565878155216504</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.89254127757409396</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.74448753695981595</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.83134096524254197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.11230940870212</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.98666306218472399</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.99100536121229399</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.99055057469112495</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.97300976209196299</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.95530199367638902</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.81381999072007005</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.96515818909250795</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.95284190455446605</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.77579122890687802</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.77473465829559696</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.78457671857043998</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.63572504998631496</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.73626012484296199</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.74705580322508203</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.65192261421317499</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.74005106184723302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.73298624023800696</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.99140770853749105</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.99340391666257799</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.99212912694678301</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.97620473789741002</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.96213137866616305</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.80956771178963705</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.926432161270206</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.93928927625728997</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1.07706883432463</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1.07664666360229</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1.0824321134246699</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1.0203489152391201</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1.06253206123225</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1.0482997322977601</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.87633626126040198</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1.06730209496788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.13759761993306099</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.99134789032853499</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.99188907592974196</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.99413270938978604</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.97197594103988305</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.97342384746830901</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.80502242339945396</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.96101729600672003</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.95873247871717104</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.67808506444197303</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.68803172207802199</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.663965085095365</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.56538731622595395</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.58846696600396098</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.646587092726983</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.58350004205261596</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.59702375209696901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>8.9996281145407198E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.98814445012924501</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.99072874931005905</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.98975299647944504</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.96830902315567402</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.96835243279915195</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.802661774457328</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.96745429307708097</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.96104782875305195</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.00143387142055</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.00344736870311</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.0014789177686301</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.96612825889194698</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1.0033081341529499</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.99448870690454405</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.80985692450619995</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.96756736062117299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.13015991074749</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.99000937721148397</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.99044158258014203</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.99655684181896598</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.97437055647097104</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.95061568282812003</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.79467625862900604</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.95046406235022096</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.96537659151658495</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.69352349889635201</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.70904577845068195</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.70723740177677497</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.42005641635576002</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.644227880161928</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.66083063169471101</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.59612848391801898</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.71659575156482902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.14317590182223899</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.98761006235038096</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.99217733628566496</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.99171171067168595</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.97155425428030395</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.942445986266082</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.793360761069001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.90341618660161105</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.94539745656074803</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.0169664172528301</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.0313665947777699</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.01724173206748</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.06276693237834</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.98190803710624697</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.96723744154566604</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0.85378653426763096</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1.0023835081124199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.115284492376348</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.98959277423061598</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.98667610588396704</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.98867916651911103</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.966846747381917</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.96962600202149496</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.78568091682825902</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.94878107533042799</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.95619615140097802</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.1173736004778601</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.1122949616959199</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.12484836660196</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.68617482349427805</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1.1043868226859399</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.0843775627532399</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0.87705522904143896</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1.0602342336150701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.76496838973596104</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.99438876090685702</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.99522159041804503</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.99599393304993999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.986096538406524</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.96169057271997105</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.78088437468306704</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.96200155784042096</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.94373502495575801</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.24141307349992</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.24112969338669</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.2421394789362401</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1.1632986815056801</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.15567883822597</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1.1858327234996699</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.88302138534974495</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1.2111643282926301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.18557084417999301</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.97960982849468603</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.98029498916507596</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.98518532349877697</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.96922730496239096</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.96179019356432804</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.77033376870583503</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.93778812551065005</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.95632801671554202</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.1349404425396601</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.12907331489818</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.11863081395093</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.08482407302502</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.1099718324627901</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1.1064823774519501</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.89898845819579698</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1.13016142635656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.18817404239494201</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.98779685735495404</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.99322632446111003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.99490291288865296</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.97414614182906401</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.94622827594179104</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.76960155233181504</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.96428927736439696</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.94811293687184295</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.73233188249793002</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.74082713352367402</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.73104949691151699</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.71631168799497902</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.66171050571827705</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.71607751302576905</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.61396694896524395</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.71682742926894705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.17813313499442199</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.98992426421817603</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.99742602232569499</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.99467448604884801</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.97313974542950399</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.95363444009014597</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.75690454836083498</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.96010647528278004</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.94013004441374504</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.817731199210461</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.83896431621015599</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.83182838758156896</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.71095705808114695</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.81245245460690696</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.81914602428453098</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.64427598170172196</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.78330597989430595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.20974339903309799</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.99037542247307797</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.99215234919079998</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.99282179849881902</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.97268178732744504</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.94742844053134501</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.75662443792848499</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.94563173662449296</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.94589082953022596</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.64482948749918201</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.72640238241678401</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.72394057032993897</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.61464215067872396</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.55754688385265405</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.67573808202758201</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.57017381566199599</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.69926491130113999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.19747117887690599</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.99311259402708996</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.99626319453450896</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.99299761622953198</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.96929180692969197</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.952104884453016</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.75488671987658595</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.92899816009420799</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.94107938408289205</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.80620679139484497</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.81228837405413101</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.80554943200961204</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.73430943344713095</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.77351666208685299</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.80255893257347999</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.66551712106446703</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.80694804070555903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.86500557828188895</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.99033063935876198</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.99241430877868797</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.98922811060427596</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.97203907195953498</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.97050274315741303</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.75419011175188999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.968734441292465</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.95617387082028005</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.98569415982195996</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.984296524567565</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1.0030415078141699</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.82799134896629201</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.99570984343191005</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.99471879487835102</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.76800443493112502</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1.0126696538634501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.70769802900706602</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.99121594052674</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.99500091416068803</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.99169900183871995</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.964335744951623</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.94210666581944102</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.75144248096223898</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.92319682138639902</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.92299808564774499</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.88580163010002999</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.88310500294465599</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.88860076200293803</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.37988177425986602</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.80389588772865905</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.81515057613649</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.63511043798177602</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0.78467199073505001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.156563778356266</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.99235427452247904</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.99527617030484805</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.997212881880709</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.97828008446532699</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.97215252457345003</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.75102980626446003</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.97225311942282699</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.96364128675253602</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.71254220788168199</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.71725219266621898</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.70645008219872096</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.66498315682139697</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.62495194042175894</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.70592695662203997</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.57005584219045202</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.70347482454940602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.16437337300111601</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.99291901316892595</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.99010355791553895</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.99276470053263299</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.97771007298621704</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.95657335231654295</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.74076742237458404</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.96897371637783802</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.94912007780915197</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.92535986877134502</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.93444113856973599</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.929147184199825</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.94489907601771495</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.92116210163735301</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.931828489428148</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0.68461573064224701</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.89195886809675895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.82223875046485695</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.99352863205858999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.99132096832805106</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.99315637141750501</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.97716728762621297</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.95830252648259995</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.73587371141055602</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.93005048118990297</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.95355035246644004</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.86784132183349705</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.87022201783214703</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.87344184856712204</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.75484241582012002</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.83130273876750205</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0.82180856091964405</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0.62564462657687203</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0.79009903581105201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.172182967645965</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.987766694317322</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.99470567080989303</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.99545131155291799</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.97856735980148302</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.97993120326350203</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.73452184689005195</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.94715752233008499</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.97861584098911203</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1.0320905900305599</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1.0357345297937799</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1.03224602518729</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.81547207511549202</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1.0013469111166899</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1.0015185528355799</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0.73259386376053104</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1.04674024079684</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.68055039047973198</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.991147412076131</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.98738602820967003</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.99000174275798503</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.97171992939094598</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.95554416560487898</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.73429643986763304</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.93491227744377003</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.92028770312201302</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.90975613918655396</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.90747568909740495</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.91874968085324504</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.68609487643019595</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.92187381526131496</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.86089106752304201</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0.66893781385962203</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0.87256383125502501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.21606545184083301</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.99543405148908104</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.996043909920862</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.995038511408883</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.98002005831468597</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.95702099483623204</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.73271218335409205</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.93528173743936704</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.95988636701823704</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.75524172053469396</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.791149875521032</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.74010450648190695</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.76367348601762397</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.80836241211108195</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.77886748883146695</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0.61488628056330097</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0.79933084551276101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.80587579025660105</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.99210161441436295</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.99367506908201997</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.99597188091290401</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.97671246638073295</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.96524099876416802</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.72662996087954201</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.96595207363475299</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.95165146652502797</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1.0393163923511699</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.04306368108387</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1.0363670706628301</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.79260798661479603</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1.02785136655194</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1.0243391348814299</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0.768342271211779</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.04345849507313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.68687244328746699</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.98988940940304304</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.993607919635496</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.99666291210126401</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.96980375124601903</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.94891608965513896</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.72400601483249805</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.92953458247254295</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.94778876514910204</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1.2583237273402501</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1.2818600917963401</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1.2505670154058299</v>
+      </c>
+      <c r="N42" s="5">
+        <v>1.25446465647378</v>
+      </c>
+      <c r="O42" s="5">
+        <v>1.1703050970417099</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1.19919169407474</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0.84501437850011496</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1.2391787669351499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.198214949795463</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.98978593902854095</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.98867613467195703</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.99396562715652903</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.97463809895002596</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.96538540064324896</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.72286583176181496</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.96131915438234905</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.95292978816618701</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1.2557284058912499</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1.24842180045817</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1.25629766878167</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.226786792905778</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1.1885638429825001</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1.1757460886183</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0.83547452284358503</v>
+      </c>
+      <c r="R43" s="2">
+        <v>1.1720992451382199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.72443287467460005</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.992820926256473</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.99396274246103999</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.99050458680174702</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.97435889281121102</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.942938022508791</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.71557467712504896</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.91038827099871</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.92186707129628698</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.94963112008473105</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.95220970014217599</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.94368745060463</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.59160453740964303</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.91104799386940705</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.92799080354401398</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.69431815379696604</v>
+      </c>
+      <c r="R44" s="5">
+        <v>0.85233023837867705</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.223131275567125</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.99422207868453205</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.99650670440145295</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.99386816629085495</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.97405008345003297</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.957731651489102</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.70851367089039397</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.970851665396254</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.96537238085329702</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.84549181809428797</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.84778343186801397</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.83863231944918204</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.43594055537783699</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.81619474368089295</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.82873111437165703</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.61704704376311004</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.80795938149927904</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.246931944960952</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.99053870501082497</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.99122042567675905</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.98870221061568897</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.97692803346095702</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.95232362029331397</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.70801616262077705</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.93729889766619301</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.937880623830743</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1.0372590732364999</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.03400724636871</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1.0530029680986399</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.79823133888522901</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.0278779412526</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.99087040991683994</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0.70118941448767302</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0.84904192875295303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.25697285236147299</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.99212115994945804</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.99024729170391701</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.98897974567493296</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.97133773063886997</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.950084649238226</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.70787102959036796</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.92465727377409102</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.943316337589577</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.88106593803702604</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.89041048085591001</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.88211613588638105</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.73839164376743605</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.82839670390092901</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.83691440986809695</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0.62430472769731604</v>
+      </c>
+      <c r="R47" s="5">
+        <v>0.792039169596503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.27668278170323501</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.99242796889728102</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.99276678673157503</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.99389519580055297</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.97518610444020104</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.962833202551303</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.70310746577354499</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.886133633665669</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.94292961534530295</v>
+      </c>
+      <c r="K48" s="5">
+        <v>1.0141606858315</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1.03284909817416</v>
+      </c>
+      <c r="M48" s="5">
+        <v>1.0249802170528699</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.51652229343824096</v>
+      </c>
+      <c r="O48" s="5">
+        <v>1.01461375074542</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.99975731951703695</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0.73150810571858105</v>
+      </c>
+      <c r="R48" s="5">
+        <v>1.01336645064186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.33618445518780199</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.99536338012783998</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.99472580645595399</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.99713276944137597</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.98087402212549701</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.94578876296862402</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.69801835332890905</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.93268145609517406</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.94778231479337105</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.84617859210943702</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.86021485689163302</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.872823916016775</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.69584580980760902</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.85731532949048095</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.83592076555952799</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0.62963772906149795</v>
+      </c>
+      <c r="R49" s="5">
+        <v>0.85051312950273295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.428783934548159</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.99280366456088298</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.99197299918807602</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.99517311442279299</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.97464409227256299</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.94622323359293203</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.69388496937517696</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.921770617610843</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.94116110763751504</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.896996140774734</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.896990720873167</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0.88933082057030499</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.77343854936834699</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.87952854127923996</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.84735473858427801</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0.62495918343350298</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0.86093915489845596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.44365935291930098</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.987230215377908</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.98866834055876196</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.99183606568010596</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.97297657333064702</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.96130521369808097</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.69378315526543999</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.94985695850135698</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.93216327325955695</v>
+      </c>
+      <c r="K51" s="5">
+        <v>1.11574499438306</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1.1252091210452699</v>
+      </c>
+      <c r="M51" s="5">
+        <v>1.1066995283527701</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.94944185438203699</v>
+      </c>
+      <c r="O51" s="5">
+        <v>1.0992936348393301</v>
+      </c>
+      <c r="P51" s="5">
+        <v>1.07168470595677</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.76605642429050402</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1.0942174955139301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.368910375604314</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.99128172533798098</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.99430195895365703</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.98948408113783604</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.97621597052189502</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.94345496549882102</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.69341977169928604</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.90192094366548803</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.93481992945595205</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1.04209460854749</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1.03379704681691</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1.05246698622301</v>
+      </c>
+      <c r="N52" s="5">
+        <v>1.0374182587060701</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.98265041408958798</v>
+      </c>
+      <c r="P52" s="5">
+        <v>1.0068235263921901</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0.75304256127914004</v>
+      </c>
+      <c r="R52" s="5">
+        <v>1.0285230611273299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.44068426924507298</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.98102511768144995</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.98529297054054399</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.987583129802447</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.97172507595064095</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.94929887011053804</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.68520611059581205</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.85513096988408699</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.92723732114216095</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1.0115294094565199</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1.0196906995876001</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1.0111771733308801</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.71593195997570103</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.990430703175464</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.97303044136088401</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0.673045009067608</v>
+      </c>
+      <c r="R53" s="5">
+        <v>0.95551293462202902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.31721829676459701</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.98739681203666496</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.99187637265310602</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.98800513881211505</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.96897311559362498</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.95142255635248996</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.68419999801097697</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.93516036564850602</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.94104437566620902</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1.0788609249512</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1.0804060530838899</v>
+      </c>
+      <c r="M54" s="5">
+        <v>1.0781404146039599</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.82628476613740598</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1.0607811582162801</v>
+      </c>
+      <c r="P54" s="5">
+        <v>1.04546765638872</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0.74233789682637596</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1.0818743806820501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.326143547787281</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.99164167064757502</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.994238501350165</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.99340004376249302</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.97609730036616704</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.95087051376812504</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.68313724613163496</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.93060948194682802</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.93004014663989198</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1.06962020231822</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1.0684797807662101</v>
+      </c>
+      <c r="M55" s="5">
+        <v>1.07585668723767</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.93632675083261896</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1.0219158387115701</v>
+      </c>
+      <c r="P55" s="5">
+        <v>1.02472066936129</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0.74477489801624297</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1.04220274502361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.27482335440684302</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.99340942100921104</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.99254247591286604</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.99331123969593005</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.97952184676382803</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.97217021812959903</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.67316645741799297</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.96957378682238404</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.96620874282376701</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.93753004393950401</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.93847051003919801</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.92881850132062105</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.642635149942685</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.91927572176675199</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.92561577912412496</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0.64337902319250095</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0.91582972086979197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.59576050576422501</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.98610077923088302</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.98853372467638001</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.98891184415209699</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.96946211909229896</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.95504402274178601</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.67268621479425506</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.89804611615528396</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.93833144650295897</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1.0094837758461399</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.98533400458145803</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1.0273014154077</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.95824646848235295</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1.02946889502051</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.997359074349084</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0.71971493743995296</v>
+      </c>
+      <c r="R57" s="5">
+        <v>1.0103922311815099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.45035329118631501</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.99214884805229997</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.99420174556052698</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.99412974342122995</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.97817160865053199</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.93752271185722802</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.66635674253078903</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.89186502707684201</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.92441980500813503</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.92332419687089595</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.92425415522278598</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0.931883343330557</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.456448461218246</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.85600906960026302</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.86890526493648401</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0.62576201112210605</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0.85377808947723199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.68835998512458196</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.98813520538618305</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.98652971505131304</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.99043970531808601</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.97496077314949003</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.95731774303016803</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.66531418373366602</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.91047855651765797</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.94293416884930603</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.98736718908820997</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.98486644698047399</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0.982278574974359</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.58937638037534601</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.98194212133296499</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.96188162633497498</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0.67445905098772496</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0.99352541507104897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.33581256972852402</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.991435173298026</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.99224848257370701</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.99381117836292898</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.97622792511388201</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.96479435006921599</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.65770783015179302</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.97081475635081005</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.96324960841253005</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.96870667932675802</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.96739829076867001</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0.97019085812430494</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.92885048117420399</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.94782141080563997</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.94337440569762199</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0.62683121061674596</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0.97926627770922703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.51766455931573097</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.98641221100969201</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.99094018445951104</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.98720168018036603</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.970831619034358</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.95341236423394005</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.64576305898142305</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.93846034948563295</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.94456126305555499</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.99871424277546905</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.99532142618015396</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0.98993713317169496</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.59579703280171503</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.98848414534076201</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.96309821145232</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0.664390685103602</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.98397724134777198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="11" width="8.6328125" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="18" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.73298624023800696</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.99140770853749105</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.99340391666257799</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.99212912694678301</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.97620473789741002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.96213137866616305</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.80956771178963705</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.926432161270206</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.93928927625728997</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1.07706883432463</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1.07664666360229</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1.0824321134246699</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1.0203489152391201</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1.06253206123225</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1.0482997322977601</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.87633626126040198</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1.06730209496788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.70769802900706602</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.99121594052674</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.99500091416068803</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.99169900183871995</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.964335744951623</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.94210666581944102</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.75144248096223898</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.92319682138639902</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.92299808564774499</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.88580163010002999</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.88310500294465599</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.88860076200293803</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.37988177425986602</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.80389588772865905</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.81515057613649</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.63511043798177602</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.78467199073505001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.68055039047973198</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.991147412076131</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.98738602820967003</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.99000174275798503</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.97171992939094598</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.95554416560487898</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.73429643986763304</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.93491227744377003</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.92028770312201302</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.90975613918655396</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.90747568909740495</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.91874968085324504</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.68609487643019595</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.92187381526131496</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.86089106752304201</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.66893781385962203</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.87256383125502501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.68687244328746699</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.98988940940304304</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.993607919635496</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.99666291210126401</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.96980375124601903</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.94891608965513896</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.72400601483249805</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.92953458247254295</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.94778876514910204</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.2583237273402501</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1.2818600917963401</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1.2505670154058299</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1.25446465647378</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.1703050970417099</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1.19919169407474</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.84501437850011496</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1.2391787669351499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.72443287467460005</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.992820926256473</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.99396274246103999</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99050458680174702</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.97435889281121102</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.942938022508791</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.71557467712504896</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.91038827099871</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.92186707129628698</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.94963112008473105</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.95220970014217599</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.94368745060463</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.59160453740964303</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.91104799386940705</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.92799080354401398</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.69431815379696604</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.85233023837867705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.25697285236147299</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.99212115994945804</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.99024729170391701</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.98897974567493296</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.97133773063886997</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.950084649238226</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.70787102959036796</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.92465727377409102</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.943316337589577</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.88106593803702604</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.89041048085591001</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.88211613588638105</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.73839164376743605</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.82839670390092901</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.83691440986809695</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.62430472769731604</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.792039169596503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.27668278170323501</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.99242796889728102</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.99276678673157503</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.99389519580055297</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.97518610444020104</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.962833202551303</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.70310746577354499</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.886133633665669</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.94292961534530295</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1.0141606858315</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1.03284909817416</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1.0249802170528699</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.51652229343824096</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.01461375074542</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.99975731951703695</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.73150810571858105</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1.01336645064186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.33618445518780199</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.99536338012783998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.99472580645595399</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.99713276944137597</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.98087402212549701</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.94578876296862402</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.69801835332890905</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.93268145609517406</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.94778231479337105</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.84617859210943702</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.86021485689163302</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.872823916016775</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.69584580980760902</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.85731532949048095</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.83592076555952799</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.62963772906149795</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.85051312950273295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.428783934548159</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.99280366456088298</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.99197299918807602</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.99517311442279299</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.97464409227256299</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.94622323359293203</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.69388496937517696</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.921770617610843</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.94116110763751504</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.896996140774734</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0.896990720873167</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.88933082057030499</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.77343854936834699</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.87952854127923996</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.84735473858427801</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.62495918343350298</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.86093915489845596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.44365935291930098</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.987230215377908</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.98866834055876196</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.99183606568010596</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.97297657333064702</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.96130521369808097</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.69378315526543999</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.94985695850135698</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.93216327325955695</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1.11574499438306</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1.1252091210452699</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1.1066995283527701</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.94944185438203699</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.0992936348393301</v>
+      </c>
+      <c r="P13" s="9">
+        <v>1.07168470595677</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.76605642429050402</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1.0942174955139301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.368910375604314</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.99128172533798098</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.99430195895365703</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.98948408113783604</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.97621597052189502</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.94345496549882102</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.69341977169928604</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.90192094366548803</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.93481992945595205</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1.04209460854749</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1.03379704681691</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1.05246698622301</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1.0374182587060701</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.98265041408958798</v>
+      </c>
+      <c r="P14" s="9">
+        <v>1.0068235263921901</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.75304256127914004</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1.0285230611273299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.44068426924507298</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.98102511768144995</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.98529297054054399</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.987583129802447</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.97172507595064095</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.94929887011053804</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.68520611059581205</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.85513096988408699</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.92723732114216095</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1.0115294094565199</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1.0196906995876001</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1.0111771733308801</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.71593195997570103</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.990430703175464</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.97303044136088401</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.673045009067608</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.95551293462202902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.31721829676459701</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.98739681203666496</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.99187637265310602</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.98800513881211505</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.96897311559362498</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.95142255635248996</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.68419999801097697</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.93516036564850602</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.94104437566620902</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.0788609249512</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1.0804060530838899</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1.0781404146039599</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.82628476613740598</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1.0607811582162801</v>
+      </c>
+      <c r="P16" s="9">
+        <v>1.04546765638872</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.74233789682637596</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1.0818743806820501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.326143547787281</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.99164167064757502</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.994238501350165</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.99340004376249302</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.97609730036616704</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.95087051376812504</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.68313724613163496</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.93060948194682802</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.93004014663989198</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.06962020231822</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1.0684797807662101</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.07585668723767</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.93632675083261896</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1.0219158387115701</v>
+      </c>
+      <c r="P17" s="9">
+        <v>1.02472066936129</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.74477489801624297</v>
+      </c>
+      <c r="R17" s="9">
+        <v>1.04220274502361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.27482335440684302</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.99340942100921104</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.99254247591286604</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.99331123969593005</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.97952184676382803</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.97217021812959903</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.67316645741799297</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.96957378682238404</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.96620874282376701</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.93753004393950401</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.93847051003919801</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.92881850132062105</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.642635149942685</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.91927572176675199</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.92561577912412496</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.64337902319250095</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.91582972086979197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.59576050576422501</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.98610077923088302</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.98853372467638001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.98891184415209699</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.96946211909229896</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.95504402274178601</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.67268621479425506</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.89804611615528396</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.93833144650295897</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.0094837758461399</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.98533400458145803</v>
+      </c>
+      <c r="M19" s="9">
+        <v>1.0273014154077</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.95824646848235295</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.02946889502051</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.997359074349084</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.71971493743995296</v>
+      </c>
+      <c r="R19" s="9">
+        <v>1.0103922311815099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.45035329118631501</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.99214884805229997</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.99420174556052698</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.99412974342122995</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.97817160865053199</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.93752271185722802</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.66635674253078903</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.89186502707684201</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.92441980500813503</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.92332419687089595</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.92425415522278598</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.931883343330557</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.456448461218246</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.85600906960026302</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.86890526493648401</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.62576201112210605</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.85377808947723199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.68835998512458196</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.98813520538618305</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.98652971505131304</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.99043970531808601</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.97496077314949003</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.95731774303016803</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.66531418373366602</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.91047855651765797</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.94293416884930603</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.98736718908820997</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.98486644698047399</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.982278574974359</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.58937638037534601</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.98194212133296499</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.96188162633497498</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.67445905098772496</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.99352541507104897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.33581256972852402</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.991435173298026</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.99224848257370701</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.99381117836292898</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.97622792511388201</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.96479435006921599</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.65770783015179302</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.97081475635081005</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.96324960841253005</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.96870667932675802</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.96739829076867001</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.97019085812430494</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.92885048117420399</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0.94782141080563997</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.94337440569762199</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.62683121061674596</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.97926627770922703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.51766455931573097</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.98641221100969201</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.99094018445951104</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.98720168018036603</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.970831619034358</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.95341236423394005</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.64576305898142305</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.93846034948563295</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.94456126305555499</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.99871424277546905</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.99532142618015396</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0.98993713317169496</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.59579703280171503</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.98848414534076201</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.96309821145232</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.664390685103602</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.98397724134777198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="K1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>